--- a/All Scrapped Excels/all_excels_merge.xlsx
+++ b/All Scrapped Excels/all_excels_merge.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.059,42 €</t>
+          <t xml:space="preserve">2.059,42 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.192,52 €</t>
+          <t xml:space="preserve">2.192,52 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.255,98 €</t>
+          <t xml:space="preserve">1.255,98 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>568,70 €</t>
+          <t xml:space="preserve">568,70 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.783,54 €</t>
+          <t xml:space="preserve">1.783,54 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.456,84 €</t>
+          <t xml:space="preserve">1.456,84 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.456,84 €</t>
+          <t xml:space="preserve">1.456,84 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.588,73 €</t>
+          <t xml:space="preserve">1.588,73 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.032,13 €</t>
+          <t xml:space="preserve">1.032,13 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.553,64 €</t>
+          <t xml:space="preserve">1.553,64 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.779,91 €</t>
+          <t xml:space="preserve">1.779,91 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.206,37 €</t>
+          <t xml:space="preserve">1.206,37 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>654,61 €</t>
+          <t xml:space="preserve">654,61 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>711,48 €</t>
+          <t xml:space="preserve">711,48 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.783,54 €</t>
+          <t xml:space="preserve">1.783,54 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>889,35 €</t>
+          <t xml:space="preserve">889,35 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>670,34 €</t>
+          <t xml:space="preserve">670,34 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>751,41 €</t>
+          <t xml:space="preserve">751,41 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>790,13 €</t>
+          <t xml:space="preserve">790,13 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>663,08 €</t>
+          <t xml:space="preserve">663,08 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>497,31 €</t>
+          <t xml:space="preserve">497,31 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.472,57 €</t>
+          <t xml:space="preserve">1.472,57 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.386,66 €</t>
+          <t xml:space="preserve">1.386,66 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>860,31 €</t>
+          <t xml:space="preserve">860,31 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.073,27 €</t>
+          <t xml:space="preserve">1.073,27 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>699,38 €</t>
+          <t xml:space="preserve">699,38 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.120,46 €</t>
+          <t xml:space="preserve">1.120,46 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>821,59 €</t>
+          <t xml:space="preserve">821,59 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>958,32 €</t>
+          <t xml:space="preserve">958,32 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.546,38 €</t>
+          <t xml:space="preserve">1.546,38 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.724,25 €</t>
+          <t xml:space="preserve">1.724,25 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2.004,97 €</t>
+          <t xml:space="preserve">2.004,97 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.718,20 €</t>
+          <t xml:space="preserve">1.718,20 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.362,46 €</t>
+          <t xml:space="preserve">1.362,46 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.361,25 €</t>
+          <t xml:space="preserve">1.361,25 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.731,51 €</t>
+          <t xml:space="preserve">1.731,51 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.886,39 €</t>
+          <t xml:space="preserve">1.886,39 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2.088,46 €</t>
+          <t xml:space="preserve">2.088,46 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>683,65 €</t>
+          <t xml:space="preserve">683,65 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>707,85 €</t>
+          <t xml:space="preserve">707,85 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>705,43 €</t>
+          <t xml:space="preserve">705,43 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.827,10 €</t>
+          <t xml:space="preserve">1.827,10 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2.475,66 €</t>
+          <t xml:space="preserve">2.475,66 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>799,81 €</t>
+          <t xml:space="preserve">799,81 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2.105,40 €</t>
+          <t xml:space="preserve">2.105,40 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.269,29 €</t>
+          <t xml:space="preserve">1.269,29 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.222,10 €</t>
+          <t xml:space="preserve">1.222,10 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.425,38 €</t>
+          <t xml:space="preserve">1.425,38 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.447,16 €</t>
+          <t xml:space="preserve">1.447,16 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.663,75 €</t>
+          <t xml:space="preserve">1.663,75 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.166,44 €</t>
+          <t xml:space="preserve">1.166,44 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1.393,92 €</t>
+          <t xml:space="preserve">1.393,92 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.070,85 €</t>
+          <t xml:space="preserve">1.070,85 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.318,90 €</t>
+          <t xml:space="preserve">1.318,90 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.295,91 €</t>
+          <t xml:space="preserve">1.295,91 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>778,03 €</t>
+          <t xml:space="preserve">778,03 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2.291,74 €</t>
+          <t xml:space="preserve">2.291,74 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3.113,33 €</t>
+          <t xml:space="preserve">3.113,33 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3.823,60 €</t>
+          <t xml:space="preserve">3.823,60 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1.516,13 €</t>
+          <t xml:space="preserve">1.516,13 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>652,19 €</t>
+          <t xml:space="preserve">652,19 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>788,92 €</t>
+          <t xml:space="preserve">788,92 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>474,32 €</t>
+          <t xml:space="preserve">474,32 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>491,26 €</t>
+          <t xml:space="preserve">491,26 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>562,65 €</t>
+          <t xml:space="preserve">562,65 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>572,33 €</t>
+          <t xml:space="preserve">572,33 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>740,52 €</t>
+          <t xml:space="preserve">740,52 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>127,05 €</t>
+          <t xml:space="preserve">127,05 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>447,70 €</t>
+          <t xml:space="preserve">447,70 </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>376,31 €</t>
+          <t xml:space="preserve">376,31 </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>469,48 €</t>
+          <t xml:space="preserve">469,48 </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>331,54 €</t>
+          <t xml:space="preserve">331,54 </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>528,77 €</t>
+          <t xml:space="preserve">528,77 </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>516,67 €</t>
+          <t xml:space="preserve">516,67 </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>481,58 €</t>
+          <t xml:space="preserve">481,58 </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>707,85 €</t>
+          <t xml:space="preserve">707,85 </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>713,90 €</t>
+          <t xml:space="preserve">713,90 </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>598,95 €</t>
+          <t xml:space="preserve">598,95 </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>487,63 €</t>
+          <t xml:space="preserve">487,63 </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>544,50 €</t>
+          <t xml:space="preserve">544,50 </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>607,42 €</t>
+          <t xml:space="preserve">607,42 </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>336,38 €</t>
+          <t xml:space="preserve">336,38 </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>435,60 €</t>
+          <t xml:space="preserve">435,60 </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>469,48 €</t>
+          <t xml:space="preserve">469,48 </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>677,60 €</t>
+          <t xml:space="preserve">677,60 </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>834,90 €</t>
+          <t xml:space="preserve">834,90 </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>888,14 €</t>
+          <t xml:space="preserve">888,14 </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>970,42 €</t>
+          <t xml:space="preserve">970,42 </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>729,63 €</t>
+          <t xml:space="preserve">729,63 </t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>663,08 €</t>
+          <t xml:space="preserve">663,08 </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>873,62 €</t>
+          <t xml:space="preserve">873,62 </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>983,44 €</t>
+          <t xml:space="preserve">983,44 </t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>459,80 €</t>
+          <t xml:space="preserve">459,80 </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>793,76 €</t>
+          <t xml:space="preserve">793,76 </t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>603,79 €</t>
+          <t xml:space="preserve">603,79 </t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>647,35 €</t>
+          <t xml:space="preserve">647,35 </t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>926,86 €</t>
+          <t xml:space="preserve">926,86 </t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>496,10 €</t>
+          <t xml:space="preserve">496,10 </t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>565,07 €</t>
+          <t xml:space="preserve">565,07 </t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>615,89 €</t>
+          <t xml:space="preserve">615,89 </t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>733,26 €</t>
+          <t xml:space="preserve">733,26 </t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>959,53 €</t>
+          <t xml:space="preserve">959,53 </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>742,94 €</t>
+          <t xml:space="preserve">742,94 </t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>891,77 €</t>
+          <t xml:space="preserve">891,77 </t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>335,17 €</t>
+          <t xml:space="preserve">335,17 </t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>742,94 €</t>
+          <t xml:space="preserve">742,94 </t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>830,06 €</t>
+          <t xml:space="preserve">830,06 </t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>590,48 €</t>
+          <t xml:space="preserve">590,48 </t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>761,09 €</t>
+          <t xml:space="preserve">761,09 </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>349,69 €</t>
+          <t xml:space="preserve">349,69 </t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>476,74 €</t>
+          <t xml:space="preserve">476,74 </t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>338,80 €</t>
+          <t xml:space="preserve">338,80 </t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>430,76 €</t>
+          <t xml:space="preserve">430,76 </t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>235,95 €</t>
+          <t xml:space="preserve">235,95 </t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>474,32 €</t>
+          <t xml:space="preserve">474,32 </t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>485,21 €</t>
+          <t xml:space="preserve">485,21 </t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>485,21 €</t>
+          <t xml:space="preserve">485,21 </t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>624,36 €</t>
+          <t xml:space="preserve">624,36 </t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>315,81 €</t>
+          <t xml:space="preserve">315,81 </t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>350,90 €</t>
+          <t xml:space="preserve">350,90 </t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>330,33 €</t>
+          <t xml:space="preserve">330,33 </t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>392,04 €</t>
+          <t xml:space="preserve">392,04 </t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>206,91 €</t>
+          <t xml:space="preserve">206,91 </t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>434,39 €</t>
+          <t xml:space="preserve">434,39 </t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>326,70 €</t>
+          <t xml:space="preserve">326,70 </t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>473,11 €</t>
+          <t xml:space="preserve">473,11 </t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>988,57 €</t>
+          <t xml:space="preserve">988,57 </t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>751,41 €</t>
+          <t xml:space="preserve">751,41 </t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>629,20 €</t>
+          <t xml:space="preserve">629,20 </t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>758,67 €</t>
+          <t xml:space="preserve">758,67 </t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>652,19 €</t>
+          <t xml:space="preserve">652,19 </t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>784,08 €</t>
+          <t xml:space="preserve">784,08 </t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>988,57 €</t>
+          <t xml:space="preserve">988,57 </t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>717,53 €</t>
+          <t xml:space="preserve">717,53 </t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1.022,45 €</t>
+          <t xml:space="preserve">1.022,45 </t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>820,38 €</t>
+          <t xml:space="preserve">820,38 </t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>880,88 €</t>
+          <t xml:space="preserve">880,88 </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>888,14 €</t>
+          <t xml:space="preserve">888,14 </t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1.113,20 €</t>
+          <t xml:space="preserve">1.113,20 </t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>1.113,20 €</t>
+          <t xml:space="preserve">1.113,20 </t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>897,82 €</t>
+          <t xml:space="preserve">897,82 </t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>750,20 €</t>
+          <t xml:space="preserve">750,20 </t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1.274,13 €</t>
+          <t xml:space="preserve">1.274,13 </t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1.195,48 €</t>
+          <t xml:space="preserve">1.195,48 </t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1.172,49 €</t>
+          <t xml:space="preserve">1.172,49 </t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1.174,91 €</t>
+          <t xml:space="preserve">1.174,91 </t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>1.286,23 €</t>
+          <t xml:space="preserve">1.286,23 </t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>1.255,98 €</t>
+          <t xml:space="preserve">1.255,98 </t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>1.219,68 €</t>
+          <t xml:space="preserve">1.219,68 </t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>1.247,51 €</t>
+          <t xml:space="preserve">1.247,51 </t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1.201,53 €</t>
+          <t xml:space="preserve">1.201,53 </t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>482,79 €</t>
+          <t xml:space="preserve">482,79 </t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>456,17 €</t>
+          <t xml:space="preserve">456,17 </t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>646,14 €</t>
+          <t xml:space="preserve">646,14 </t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>658,24 €</t>
+          <t xml:space="preserve">658,24 </t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>671,55 €</t>
+          <t xml:space="preserve">671,55 </t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>762,30 €</t>
+          <t xml:space="preserve">762,30 </t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>834,90 €</t>
+          <t xml:space="preserve">834,90 </t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>447,70 €</t>
+          <t xml:space="preserve">447,70 </t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>905,08 €</t>
+          <t xml:space="preserve">905,08 </t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>889,35 €</t>
+          <t xml:space="preserve">889,35 </t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>976,47 €</t>
+          <t xml:space="preserve">976,47 </t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>640,09 €</t>
+          <t xml:space="preserve">640,09 </t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>713,90 €</t>
+          <t xml:space="preserve">713,90 </t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>746,57 €</t>
+          <t xml:space="preserve">746,57 </t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>592,90 €</t>
+          <t xml:space="preserve">592,90 </t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>572,33 €</t>
+          <t xml:space="preserve">572,33 </t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>652,19 €</t>
+          <t xml:space="preserve">652,19 </t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>802,23 €</t>
+          <t xml:space="preserve">802,23 </t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>865,14 €</t>
+          <t xml:space="preserve">865,14 </t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>671,55 €</t>
+          <t xml:space="preserve">671,55 </t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>592,90 €</t>
+          <t xml:space="preserve">592,90 </t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1.621,40 €</t>
+          <t xml:space="preserve">1.621,40 </t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>943,80 €</t>
+          <t xml:space="preserve">943,80 </t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>815,54 €</t>
+          <t xml:space="preserve">815,54 </t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>895,40 €</t>
+          <t xml:space="preserve">895,40 </t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>1.040,60 €</t>
+          <t xml:space="preserve">1.040,60 </t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>1.379,40 €</t>
+          <t xml:space="preserve">1.379,40 </t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>1.229,36 €</t>
+          <t xml:space="preserve">1.229,36 </t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>863,94 €</t>
+          <t xml:space="preserve">863,94 </t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>513,04 €</t>
+          <t xml:space="preserve">513,04 </t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>496,10 €</t>
+          <t xml:space="preserve">496,10 </t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>549,34 €</t>
+          <t xml:space="preserve">549,34 </t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>629,20 €</t>
+          <t xml:space="preserve">629,20 </t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>331,54 €</t>
+          <t xml:space="preserve">331,54 </t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>900,24 €</t>
+          <t xml:space="preserve">900,24 </t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>425,92 €</t>
+          <t xml:space="preserve">425,92 </t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>358,16 €</t>
+          <t xml:space="preserve">358,16 </t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>304,92 €</t>
+          <t xml:space="preserve">304,92 </t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>484,00 €</t>
+          <t xml:space="preserve">484,00 </t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>592,90 €</t>
+          <t xml:space="preserve">592,90 </t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>590,48 €</t>
+          <t xml:space="preserve">590,48 </t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>706,64 €</t>
+          <t xml:space="preserve">706,64 </t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>515,46 €</t>
+          <t xml:space="preserve">515,46 </t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>629,20 €</t>
+          <t xml:space="preserve">629,20 </t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>793,76 €</t>
+          <t xml:space="preserve">793,76 </t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>447,70 €</t>
+          <t xml:space="preserve">447,70 </t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>423,50 €</t>
+          <t xml:space="preserve">423,50 </t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>392,04 €</t>
+          <t xml:space="preserve">392,04 </t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>338,80 €</t>
+          <t xml:space="preserve">338,80 </t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>459,80 €</t>
+          <t xml:space="preserve">459,80 </t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>350,90 €</t>
+          <t xml:space="preserve">350,90 </t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>851,84 €</t>
+          <t xml:space="preserve">851,84 </t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>605,00 €</t>
+          <t xml:space="preserve">605,00 </t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>561,44 €</t>
+          <t xml:space="preserve">561,44 </t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>508,20 €</t>
+          <t xml:space="preserve">508,20 </t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>568,70 €</t>
+          <t xml:space="preserve">568,70 </t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>416,24 €</t>
+          <t xml:space="preserve">416,24 </t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>219,01 €</t>
+          <t xml:space="preserve">219,01 </t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>249,26 €</t>
+          <t xml:space="preserve">249,26 </t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>329,12 €</t>
+          <t xml:space="preserve">329,12 </t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6801,7 +6801,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>193,60 €</t>
+          <t xml:space="preserve">193,60 </t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>186,34 €</t>
+          <t xml:space="preserve">186,34 </t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>422,29 €</t>
+          <t xml:space="preserve">422,29 </t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>355,74 €</t>
+          <t xml:space="preserve">355,74 </t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>329,12 €</t>
+          <t xml:space="preserve">329,12 </t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>249,26 €</t>
+          <t xml:space="preserve">249,26 </t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>384,78 €</t>
+          <t xml:space="preserve">384,78 </t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7011,7 +7011,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>187,55 €</t>
+          <t xml:space="preserve">187,55 </t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>237,16 €</t>
+          <t xml:space="preserve">237,16 </t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>655,82 €</t>
+          <t xml:space="preserve">655,82 </t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>769,56 €</t>
+          <t xml:space="preserve">769,56 </t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>677,60 €</t>
+          <t xml:space="preserve">677,60 </t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>597,74 €</t>
+          <t xml:space="preserve">597,74 </t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>688,49 €</t>
+          <t xml:space="preserve">688,49 </t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>837,32 €</t>
+          <t xml:space="preserve">837,32 </t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>242,00 €</t>
+          <t xml:space="preserve">242,00 </t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>291,61 €</t>
+          <t xml:space="preserve">291,61 </t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>407,77 €</t>
+          <t xml:space="preserve">407,77 </t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>479,16 €</t>
+          <t xml:space="preserve">479,16 </t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>152,46 €</t>
+          <t xml:space="preserve">152,46 </t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>327,91 €</t>
+          <t xml:space="preserve">327,91 </t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>326,70 €</t>
+          <t xml:space="preserve">326,70 </t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>304,92 €</t>
+          <t xml:space="preserve">304,92 </t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>220,22 €</t>
+          <t xml:space="preserve">220,22 </t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>395,67 €</t>
+          <t xml:space="preserve">395,67 </t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>394,46 €</t>
+          <t xml:space="preserve">394,46 </t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>388,41 €</t>
+          <t xml:space="preserve">388,41 </t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>586,85 €</t>
+          <t xml:space="preserve">586,85 </t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>572,33 €</t>
+          <t xml:space="preserve">572,33 </t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>424,71 €</t>
+          <t xml:space="preserve">424,71 </t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>486,42 €</t>
+          <t xml:space="preserve">486,42 </t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>765,93 €</t>
+          <t xml:space="preserve">765,93 </t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>931,70 €</t>
+          <t xml:space="preserve">931,70 </t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>774,40 €</t>
+          <t xml:space="preserve">774,40 </t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>681,23 €</t>
+          <t xml:space="preserve">681,23 </t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>845,79 €</t>
+          <t xml:space="preserve">845,79 </t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>688,49 €</t>
+          <t xml:space="preserve">688,49 </t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>629,20 €</t>
+          <t xml:space="preserve">629,20 </t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>794,97 €</t>
+          <t xml:space="preserve">794,97 </t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>637,67 €</t>
+          <t xml:space="preserve">637,67 </t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -8001,7 +8001,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>606,21 €</t>
+          <t xml:space="preserve">606,21 </t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>732,05 €</t>
+          <t xml:space="preserve">732,05 </t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>704,22 €</t>
+          <t xml:space="preserve">704,22 </t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>773,19 €</t>
+          <t xml:space="preserve">773,19 </t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>615,89 €</t>
+          <t xml:space="preserve">615,89 </t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>607,42 €</t>
+          <t xml:space="preserve">607,42 </t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>504,57 €</t>
+          <t xml:space="preserve">504,57 </t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>555,39 €</t>
+          <t xml:space="preserve">555,39 </t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -8241,7 +8241,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>648,56 €</t>
+          <t xml:space="preserve">648,56 </t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>687,28 €</t>
+          <t xml:space="preserve">687,28 </t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>758,67 €</t>
+          <t xml:space="preserve">758,67 </t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>778,03 €</t>
+          <t xml:space="preserve">778,03 </t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>808,28 €</t>
+          <t xml:space="preserve">808,28 </t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>635,25 €</t>
+          <t xml:space="preserve">635,25 </t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>694,54 €</t>
+          <t xml:space="preserve">694,54 </t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>716,32 €</t>
+          <t xml:space="preserve">716,32 </t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>807,07 €</t>
+          <t xml:space="preserve">807,07 </t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -8511,7 +8511,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>222,64 €</t>
+          <t xml:space="preserve">222,64 </t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>726,00 €</t>
+          <t xml:space="preserve">726,00 </t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>212,96 €</t>
+          <t xml:space="preserve">212,96 </t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -8601,7 +8601,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>606,21 €</t>
+          <t xml:space="preserve">606,21 </t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -8631,7 +8631,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>732,05 €</t>
+          <t xml:space="preserve">732,05 </t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>704,22 €</t>
+          <t xml:space="preserve">704,22 </t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>773,19 €</t>
+          <t xml:space="preserve">773,19 </t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>615,89 €</t>
+          <t xml:space="preserve">615,89 </t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>607,42 €</t>
+          <t xml:space="preserve">607,42 </t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -8781,7 +8781,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>504,57 €</t>
+          <t xml:space="preserve">504,57 </t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -8811,7 +8811,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>555,39 €</t>
+          <t xml:space="preserve">555,39 </t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>648,56 €</t>
+          <t xml:space="preserve">648,56 </t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8871,7 +8871,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>687,28 €</t>
+          <t xml:space="preserve">687,28 </t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>758,67 €</t>
+          <t xml:space="preserve">758,67 </t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>778,03 €</t>
+          <t xml:space="preserve">778,03 </t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>808,28 €</t>
+          <t xml:space="preserve">808,28 </t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>635,25 €</t>
+          <t xml:space="preserve">635,25 </t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -9021,7 +9021,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>694,54 €</t>
+          <t xml:space="preserve">694,54 </t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>716,32 €</t>
+          <t xml:space="preserve">716,32 </t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>807,07 €</t>
+          <t xml:space="preserve">807,07 </t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>222,64 €</t>
+          <t xml:space="preserve">222,64 </t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>726,00 €</t>
+          <t xml:space="preserve">726,00 </t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>212,96 €</t>
+          <t xml:space="preserve">212,96 </t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>453,75 €</t>
+          <t xml:space="preserve">453,75 </t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>482,79 €</t>
+          <t xml:space="preserve">482,79 </t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>278,30 €</t>
+          <t xml:space="preserve">278,30 </t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>402,93 €</t>
+          <t xml:space="preserve">402,93 </t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>643,72 €</t>
+          <t xml:space="preserve">643,72 </t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>672,76 €</t>
+          <t xml:space="preserve">672,76 </t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>355,74 €</t>
+          <t xml:space="preserve">355,74 </t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -9411,7 +9411,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>519,09 €</t>
+          <t xml:space="preserve">519,09 </t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>596,53 €</t>
+          <t xml:space="preserve">596,53 </t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>625,57 €</t>
+          <t xml:space="preserve">625,57 </t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -9501,7 +9501,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>548,13 €</t>
+          <t xml:space="preserve">548,13 </t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>523,93 €</t>
+          <t xml:space="preserve">523,93 </t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -9561,7 +9561,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>792,55 €</t>
+          <t xml:space="preserve">792,55 </t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>764,72 €</t>
+          <t xml:space="preserve">764,72 </t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>263,78 €</t>
+          <t xml:space="preserve">263,78 </t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>592,90 €</t>
+          <t xml:space="preserve">592,90 </t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -9681,7 +9681,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>292,82 €</t>
+          <t xml:space="preserve">292,82 </t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -9711,7 +9711,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>1.074,48 €</t>
+          <t xml:space="preserve">1.074,48 </t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>353,32 €</t>
+          <t xml:space="preserve">353,32 </t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>739,31 €</t>
+          <t xml:space="preserve">739,31 </t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>606,21 €</t>
+          <t xml:space="preserve">606,21 </t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -9831,7 +9831,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>732,05 €</t>
+          <t xml:space="preserve">732,05 </t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>704,22 €</t>
+          <t xml:space="preserve">704,22 </t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>773,19 €</t>
+          <t xml:space="preserve">773,19 </t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -9921,7 +9921,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>615,89 €</t>
+          <t xml:space="preserve">615,89 </t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -9951,7 +9951,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>607,42 €</t>
+          <t xml:space="preserve">607,42 </t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -9981,7 +9981,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>504,57 €</t>
+          <t xml:space="preserve">504,57 </t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>555,39 €</t>
+          <t xml:space="preserve">555,39 </t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>648,56 €</t>
+          <t xml:space="preserve">648,56 </t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -10071,7 +10071,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>687,28 €</t>
+          <t xml:space="preserve">687,28 </t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>758,67 €</t>
+          <t xml:space="preserve">758,67 </t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>778,03 €</t>
+          <t xml:space="preserve">778,03 </t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -10161,7 +10161,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>808,28 €</t>
+          <t xml:space="preserve">808,28 </t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>635,25 €</t>
+          <t xml:space="preserve">635,25 </t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>694,54 €</t>
+          <t xml:space="preserve">694,54 </t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>716,32 €</t>
+          <t xml:space="preserve">716,32 </t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -10281,7 +10281,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>807,07 €</t>
+          <t xml:space="preserve">807,07 </t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -10311,7 +10311,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>222,64 €</t>
+          <t xml:space="preserve">222,64 </t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>726,00 €</t>
+          <t xml:space="preserve">726,00 </t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>212,96 €</t>
+          <t xml:space="preserve">212,96 </t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -10401,7 +10401,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>453,75 €</t>
+          <t xml:space="preserve">453,75 </t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>482,79 €</t>
+          <t xml:space="preserve">482,79 </t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -10461,7 +10461,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>278,30 €</t>
+          <t xml:space="preserve">278,30 </t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>402,93 €</t>
+          <t xml:space="preserve">402,93 </t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>643,72 €</t>
+          <t xml:space="preserve">643,72 </t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>672,76 €</t>
+          <t xml:space="preserve">672,76 </t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>355,74 €</t>
+          <t xml:space="preserve">355,74 </t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>519,09 €</t>
+          <t xml:space="preserve">519,09 </t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>596,53 €</t>
+          <t xml:space="preserve">596,53 </t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>625,57 €</t>
+          <t xml:space="preserve">625,57 </t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>548,13 €</t>
+          <t xml:space="preserve">548,13 </t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>523,93 €</t>
+          <t xml:space="preserve">523,93 </t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>792,55 €</t>
+          <t xml:space="preserve">792,55 </t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>764,72 €</t>
+          <t xml:space="preserve">764,72 </t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>263,78 €</t>
+          <t xml:space="preserve">263,78 </t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>592,90 €</t>
+          <t xml:space="preserve">592,90 </t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -10881,7 +10881,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>292,82 €</t>
+          <t xml:space="preserve">292,82 </t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -10911,7 +10911,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>1.074,48 €</t>
+          <t xml:space="preserve">1.074,48 </t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -10941,7 +10941,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>353,32 €</t>
+          <t xml:space="preserve">353,32 </t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -10971,7 +10971,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>739,31 €</t>
+          <t xml:space="preserve">739,31 </t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -11001,7 +11001,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>965,58 €</t>
+          <t xml:space="preserve">965,58 </t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>908,71 €</t>
+          <t xml:space="preserve">908,71 </t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>621,94 €</t>
+          <t xml:space="preserve">621,94 </t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -11091,7 +11091,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>475,53 €</t>
+          <t xml:space="preserve">475,53 </t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -11121,7 +11121,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>886,93 €</t>
+          <t xml:space="preserve">886,93 </t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -11151,7 +11151,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>445,28 €</t>
+          <t xml:space="preserve">445,28 </t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -11181,7 +11181,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>669,13 €</t>
+          <t xml:space="preserve">669,13 </t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -11211,7 +11211,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>1.056,33 €</t>
+          <t xml:space="preserve">1.056,33 </t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>1.057,54 €</t>
+          <t xml:space="preserve">1.057,54 </t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>204,49 €</t>
+          <t xml:space="preserve">204,49 </t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>1.216,05 €</t>
+          <t xml:space="preserve">1.216,05 </t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>474,32 €</t>
+          <t xml:space="preserve">474,32 </t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -11361,7 +11361,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>203,28 €</t>
+          <t xml:space="preserve">203,28 </t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -11391,7 +11391,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>1.155,55 €</t>
+          <t xml:space="preserve">1.155,55 </t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -11421,7 +11421,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>271,04 €</t>
+          <t xml:space="preserve">271,04 </t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -11451,7 +11451,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>2.250,60 €</t>
+          <t xml:space="preserve">2.250,60 </t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>3.037,10 €</t>
+          <t xml:space="preserve">3.037,10 </t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -11511,7 +11511,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>325,49 €</t>
+          <t xml:space="preserve">325,49 </t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>206,91 €</t>
+          <t xml:space="preserve">206,91 </t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -11571,7 +11571,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>297,66 €</t>
+          <t xml:space="preserve">297,66 </t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -11601,7 +11601,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>306,13 €</t>
+          <t xml:space="preserve">306,13 </t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>394,46 €</t>
+          <t xml:space="preserve">394,46 </t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -11661,7 +11661,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>526,35 €</t>
+          <t xml:space="preserve">526,35 </t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>423,50 €</t>
+          <t xml:space="preserve">423,50 </t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -11721,7 +11721,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>481,58 €</t>
+          <t xml:space="preserve">481,58 </t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>637,67 €</t>
+          <t xml:space="preserve">637,67 </t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>393,25 €</t>
+          <t xml:space="preserve">393,25 </t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -11811,7 +11811,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>678,81 €</t>
+          <t xml:space="preserve">678,81 </t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -11841,7 +11841,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>417,45 €</t>
+          <t xml:space="preserve">417,45 </t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>352,11 €</t>
+          <t xml:space="preserve">352,11 </t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>602,58 €</t>
+          <t xml:space="preserve">602,58 </t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -11931,7 +11931,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>1.380,61 €</t>
+          <t xml:space="preserve">1.380,61 </t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -11961,7 +11961,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>983,73 €</t>
+          <t xml:space="preserve">983,73 </t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -11991,7 +11991,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>759,88 €</t>
+          <t xml:space="preserve">759,88 </t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>304,92 €</t>
+          <t xml:space="preserve">304,92 </t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -12051,7 +12051,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>648,56 €</t>
+          <t xml:space="preserve">648,56 </t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -12081,7 +12081,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>540,87 €</t>
+          <t xml:space="preserve">540,87 </t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -12111,7 +12111,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>286,77 €</t>
+          <t xml:space="preserve">286,77 </t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>562,65 €</t>
+          <t xml:space="preserve">562,65 </t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -12171,7 +12171,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>544,50 €</t>
+          <t xml:space="preserve">544,50 </t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>308,55 €</t>
+          <t xml:space="preserve">308,55 </t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>376,31 €</t>
+          <t xml:space="preserve">376,31 </t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -12261,7 +12261,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>567,49 €</t>
+          <t xml:space="preserve">567,49 </t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>496,10 €</t>
+          <t xml:space="preserve">496,10 </t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -12321,7 +12321,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>529,98 €</t>
+          <t xml:space="preserve">529,98 </t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>401,72 €</t>
+          <t xml:space="preserve">401,72 </t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -12381,7 +12381,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>347,27 €</t>
+          <t xml:space="preserve">347,27 </t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -12411,7 +12411,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>447,70 €</t>
+          <t xml:space="preserve">447,70 </t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>606,21 €</t>
+          <t xml:space="preserve">606,21 </t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>479,16 €</t>
+          <t xml:space="preserve">479,16 </t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -12501,7 +12501,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>392,04 €</t>
+          <t xml:space="preserve">392,04 </t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>439,23 €</t>
+          <t xml:space="preserve">439,23 </t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>358,16 €</t>
+          <t xml:space="preserve">358,16 </t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>348,48 €</t>
+          <t xml:space="preserve">348,48 </t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>788,92 €</t>
+          <t xml:space="preserve">788,92 </t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -12651,7 +12651,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>1.049,07 €</t>
+          <t xml:space="preserve">1.049,07 </t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -12681,7 +12681,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>1.102,31 €</t>
+          <t xml:space="preserve">1.102,31 </t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -12711,7 +12711,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>1.386,66 €</t>
+          <t xml:space="preserve">1.386,66 </t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>1.118,04 €</t>
+          <t xml:space="preserve">1.118,04 </t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -12771,7 +12771,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>1.393,92 €</t>
+          <t xml:space="preserve">1.393,92 </t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>526,35 €</t>
+          <t xml:space="preserve">526,35 </t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>590,48 €</t>
+          <t xml:space="preserve">590,48 </t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -12861,7 +12861,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>683,65 €</t>
+          <t xml:space="preserve">683,65 </t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -12891,7 +12891,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>217,80 €</t>
+          <t xml:space="preserve">217,80 </t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -12921,7 +12921,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>257,73 €</t>
+          <t xml:space="preserve">257,73 </t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>359,37 €</t>
+          <t xml:space="preserve">359,37 </t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -12981,7 +12981,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>407,77 €</t>
+          <t xml:space="preserve">407,77 </t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>177,87 €</t>
+          <t xml:space="preserve">177,87 </t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -13041,7 +13041,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>284,35 €</t>
+          <t xml:space="preserve">284,35 </t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>480,37 €</t>
+          <t xml:space="preserve">480,37 </t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -13101,7 +13101,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>580,80 €</t>
+          <t xml:space="preserve">580,80 </t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -13131,7 +13131,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>383,57 €</t>
+          <t xml:space="preserve">383,57 </t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -13161,7 +13161,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>496,10 €</t>
+          <t xml:space="preserve">496,10 </t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -13191,7 +13191,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>330,33 €</t>
+          <t xml:space="preserve">330,33 </t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -13221,7 +13221,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>248,05 €</t>
+          <t xml:space="preserve">248,05 </t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -13251,7 +13251,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>435,60 €</t>
+          <t xml:space="preserve">435,60 </t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -13281,7 +13281,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>1.593,57 €</t>
+          <t xml:space="preserve">1.593,57 </t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>1.237,83 €</t>
+          <t xml:space="preserve">1.237,83 </t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>2.075,15 €</t>
+          <t xml:space="preserve">2.075,15 </t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>1.362,46 €</t>
+          <t xml:space="preserve">1.362,46 </t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -13401,7 +13401,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>1.497,98 €</t>
+          <t xml:space="preserve">1.497,98 </t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -13431,7 +13431,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>1.104,73 €</t>
+          <t xml:space="preserve">1.104,73 </t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -13461,7 +13461,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>1.281,39 €</t>
+          <t xml:space="preserve">1.281,39 </t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -13491,7 +13491,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>1.593,57 €</t>
+          <t xml:space="preserve">1.593,57 </t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -13521,7 +13521,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>793,76 €</t>
+          <t xml:space="preserve">793,76 </t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -13551,7 +13551,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>1.132,56 €</t>
+          <t xml:space="preserve">1.132,56 </t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -13581,7 +13581,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>1.452,00 €</t>
+          <t xml:space="preserve">1.452,00 </t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -13611,7 +13611,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>1.334,63 €</t>
+          <t xml:space="preserve">1.334,63 </t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -13641,7 +13641,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>964,37 €</t>
+          <t xml:space="preserve">964,37 </t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -13671,7 +13671,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>701,80 €</t>
+          <t xml:space="preserve">701,80 </t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -13701,7 +13701,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>2.008,60 €</t>
+          <t xml:space="preserve">2.008,60 </t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -13731,7 +13731,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>968,00 €</t>
+          <t xml:space="preserve">968,00 </t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -13761,7 +13761,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>799,81 €</t>
+          <t xml:space="preserve">799,81 </t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -13791,7 +13791,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>1.059,96 €</t>
+          <t xml:space="preserve">1.059,96 </t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -13821,7 +13821,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>1.059,96 €</t>
+          <t xml:space="preserve">1.059,96 </t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -13851,7 +13851,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>600,16 €</t>
+          <t xml:space="preserve">600,16 </t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -13881,7 +13881,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>836,11 €</t>
+          <t xml:space="preserve">836,11 </t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -13911,7 +13911,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>600,16 €</t>
+          <t xml:space="preserve">600,16 </t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -13941,7 +13941,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>726,00 €</t>
+          <t xml:space="preserve">726,00 </t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>756,25 €</t>
+          <t xml:space="preserve">756,25 </t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -14001,7 +14001,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>807,07 €</t>
+          <t xml:space="preserve">807,07 </t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -14031,7 +14031,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>876,04 €</t>
+          <t xml:space="preserve">876,04 </t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -14061,7 +14061,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>934,12 €</t>
+          <t xml:space="preserve">934,12 </t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>193,60 €</t>
+          <t xml:space="preserve">193,60 </t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>214,17 €</t>
+          <t xml:space="preserve">214,17 </t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>385,99 €</t>
+          <t xml:space="preserve">385,99 </t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>438,02 €</t>
+          <t xml:space="preserve">438,02 </t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>371,47 €</t>
+          <t xml:space="preserve">371,47 </t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -14241,7 +14241,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>698,17 €</t>
+          <t xml:space="preserve">698,17 </t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -14271,7 +14271,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>371,47 €</t>
+          <t xml:space="preserve">371,47 </t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -14301,7 +14301,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>600,16 €</t>
+          <t xml:space="preserve">600,16 </t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>682,44 €</t>
+          <t xml:space="preserve">682,44 </t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -14361,7 +14361,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>540,87 €</t>
+          <t xml:space="preserve">540,87 </t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -14391,7 +14391,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>912,34 €</t>
+          <t xml:space="preserve">912,34 </t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>385,99 €</t>
+          <t xml:space="preserve">385,99 </t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -14451,7 +14451,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>533,61 €</t>
+          <t xml:space="preserve">533,61 </t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>533,61 €</t>
+          <t xml:space="preserve">533,61 </t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -14511,7 +14511,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>289,19 €</t>
+          <t xml:space="preserve">289,19 </t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -14541,7 +14541,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>429,55 €</t>
+          <t xml:space="preserve">429,55 </t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -14571,7 +14571,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>355,74 €</t>
+          <t xml:space="preserve">355,74 </t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -14601,7 +14601,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>392,04 €</t>
+          <t xml:space="preserve">392,04 </t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>459,80 €</t>
+          <t xml:space="preserve">459,80 </t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -14661,7 +14661,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>526,35 €</t>
+          <t xml:space="preserve">526,35 </t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -14691,7 +14691,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>592,90 €</t>
+          <t xml:space="preserve">592,90 </t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>526,35 €</t>
+          <t xml:space="preserve">526,35 </t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -14751,7 +14751,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>459,80 €</t>
+          <t xml:space="preserve">459,80 </t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>444,07 €</t>
+          <t xml:space="preserve">444,07 </t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -14811,7 +14811,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>556,60 €</t>
+          <t xml:space="preserve">556,60 </t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>698,17 €</t>
+          <t xml:space="preserve">698,17 </t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -14871,7 +14871,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>718,74 €</t>
+          <t xml:space="preserve">718,74 </t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -14901,7 +14901,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>569,91 €</t>
+          <t xml:space="preserve">569,91 </t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -14931,7 +14931,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>799,81 €</t>
+          <t xml:space="preserve">799,81 </t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -14961,7 +14961,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>756,25 €</t>
+          <t xml:space="preserve">756,25 </t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -14991,7 +14991,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>778,03 €</t>
+          <t xml:space="preserve">778,03 </t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -15021,7 +15021,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>799,81 €</t>
+          <t xml:space="preserve">799,81 </t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
